--- a/examples/min-cost-flow.xlsx
+++ b/examples/min-cost-flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snra\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snram\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/min-cost-flow.xlsx
+++ b/examples/min-cost-flow.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="arcs" sheetId="2" r:id="rId2"/>
+    <sheet name="links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -388,12 +388,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -505,16 +505,16 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
